--- a/data/trans_orig/P6704-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>17596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11265</v>
+        <v>10864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26569</v>
+        <v>25564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2123752672405858</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1359729060024541</v>
+        <v>0.1311222511325499</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3206880179047363</v>
+        <v>0.3085507202176493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>21900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14611</v>
+        <v>14514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30244</v>
+        <v>30488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2494264002928092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1664072547754842</v>
+        <v>0.1653024328218564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3444654271486192</v>
+        <v>0.3472451149039921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -785,19 +785,19 @@
         <v>39495</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29416</v>
+        <v>29434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50614</v>
+        <v>50563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2314381824805822</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1723745272947995</v>
+        <v>0.1724786085758017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2965902767281642</v>
+        <v>0.2962912827109923</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>12116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6847</v>
+        <v>6780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20338</v>
+        <v>21232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1462349828350052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08263787851487091</v>
+        <v>0.08183676831109715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2454740127947927</v>
+        <v>0.2562639011335206</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -835,19 +835,19 @@
         <v>18225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11339</v>
+        <v>11465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26070</v>
+        <v>25926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2075672540016369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1291460226164086</v>
+        <v>0.1305835327358668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2969228787464307</v>
+        <v>0.2952833220092314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -856,19 +856,19 @@
         <v>30340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21960</v>
+        <v>21073</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41424</v>
+        <v>40507</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.177790613942913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1286837223377283</v>
+        <v>0.1234851186578144</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2427373581507645</v>
+        <v>0.2373650735708937</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>26851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18074</v>
+        <v>18636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35407</v>
+        <v>36248</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3240849354117682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2181526028730338</v>
+        <v>0.2249308552049298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4273624286687703</v>
+        <v>0.4375140504882211</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -906,19 +906,19 @@
         <v>12433</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7243</v>
+        <v>6674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20381</v>
+        <v>19901</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1415986819263848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0824941420479698</v>
+        <v>0.07601208922604595</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2321324019238237</v>
+        <v>0.2266577692942668</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -927,19 +927,19 @@
         <v>39283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29358</v>
+        <v>28792</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51870</v>
+        <v>51896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2301952295894626</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.172036571791172</v>
+        <v>0.1687189350754388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3039491080420609</v>
+        <v>0.304103919917281</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>15134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9098</v>
+        <v>8790</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24132</v>
+        <v>23706</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1826619844993171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1098166655588084</v>
+        <v>0.1060911595851655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2912640509341028</v>
+        <v>0.2861242277579267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -977,19 +977,19 @@
         <v>14937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8834</v>
+        <v>9010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22748</v>
+        <v>22670</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1701258534855509</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1006120027616252</v>
+        <v>0.1026220882163954</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2590862622178366</v>
+        <v>0.2581977198909709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -998,19 +998,19 @@
         <v>30071</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20656</v>
+        <v>21069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41081</v>
+        <v>41065</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1762121087933277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1210404390679418</v>
+        <v>0.1234599433803585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2407288176932804</v>
+        <v>0.240635918978429</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>11155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5069</v>
+        <v>5816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19614</v>
+        <v>20065</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1346428300133237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06118714153093417</v>
+        <v>0.07020308607028276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2367342136618166</v>
+        <v>0.2421763193377288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1048,19 +1048,19 @@
         <v>20307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13097</v>
+        <v>12166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28492</v>
+        <v>28582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2312818102936183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1491622851160113</v>
+        <v>0.1385655346533665</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.324511239146047</v>
+        <v>0.3255306776494543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -1069,19 +1069,19 @@
         <v>31462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21745</v>
+        <v>22134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43787</v>
+        <v>43200</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1843638651937144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1274212984485514</v>
+        <v>0.1297019035862472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2565891430798566</v>
+        <v>0.2531457233572125</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>78760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63313</v>
+        <v>62569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95901</v>
+        <v>95039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2052787958077851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1650183849268053</v>
+        <v>0.1630802864741852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2499569087802</v>
+        <v>0.2477088176984452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1194,19 +1194,19 @@
         <v>57116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43616</v>
+        <v>44581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72098</v>
+        <v>73029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2077294485078254</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1586317500241646</v>
+        <v>0.1621418921212575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2622211254653617</v>
+        <v>0.2656050816880202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -1215,19 +1215,19 @@
         <v>135875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117229</v>
+        <v>115681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158590</v>
+        <v>160855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2063018569461206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1779901718785076</v>
+        <v>0.1756402118065796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2407900018526496</v>
+        <v>0.2442286100811609</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>82658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67906</v>
+        <v>67677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102035</v>
+        <v>100923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2154389648473894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1769900901216211</v>
+        <v>0.1763926380452684</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2659442344685271</v>
+        <v>0.2630461762740922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -1265,19 +1265,19 @@
         <v>50789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38314</v>
+        <v>37056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66406</v>
+        <v>64585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1847212240280909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1393475438334198</v>
+        <v>0.1347731971351725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2415184988923236</v>
+        <v>0.234894828151659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -1286,19 +1286,19 @@
         <v>133447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113314</v>
+        <v>113706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>154978</v>
+        <v>158002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2026153905852465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1720464645399664</v>
+        <v>0.1726415933543579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2353059253805259</v>
+        <v>0.2398978621322551</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>99759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82624</v>
+        <v>84959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117974</v>
+        <v>119277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2600102693019744</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2153501973609981</v>
+        <v>0.2214370552778551</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3074857016366105</v>
+        <v>0.3108814855141745</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -1336,19 +1336,19 @@
         <v>84631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68448</v>
+        <v>70436</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100813</v>
+        <v>102963</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3078025368251667</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2489466305089979</v>
+        <v>0.2561758771582118</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3666563413606237</v>
+        <v>0.3744771520745537</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>179</v>
@@ -1357,19 +1357,19 @@
         <v>184390</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164062</v>
+        <v>159121</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209611</v>
+        <v>209546</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2799618567362567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.24909836615647</v>
+        <v>0.2415955835309318</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3182560562200393</v>
+        <v>0.3181575199205727</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>54929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42658</v>
+        <v>41708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69917</v>
+        <v>68407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1431670822818353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1111835362290259</v>
+        <v>0.108707192988677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1822303335971681</v>
+        <v>0.1782965978623018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1407,19 +1407,19 @@
         <v>50260</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37134</v>
+        <v>38737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63140</v>
+        <v>64245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1827938151640191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1350578942320544</v>
+        <v>0.140886981325564</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2296398189839603</v>
+        <v>0.2336596045950985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -1428,19 +1428,19 @@
         <v>105189</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89432</v>
+        <v>88029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127766</v>
+        <v>124982</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1597098467667004</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1357867109989269</v>
+        <v>0.1336565986131436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1939885816476875</v>
+        <v>0.1897630298833931</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>67567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52530</v>
+        <v>53913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85346</v>
+        <v>84859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1761048877610158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.136912652558006</v>
+        <v>0.1405194204676745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2224446846946598</v>
+        <v>0.2211771427714365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1478,19 +1478,19 @@
         <v>32156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22288</v>
+        <v>22843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43638</v>
+        <v>45405</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.116952975474898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08106133222294246</v>
+        <v>0.08307895349643765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1587111616658763</v>
+        <v>0.1651371889077103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -1499,19 +1499,19 @@
         <v>99723</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81613</v>
+        <v>80669</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120345</v>
+        <v>120892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1514110489656757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1239150909509905</v>
+        <v>0.1224805637160206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.182721912070539</v>
+        <v>0.183552852603176</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>60565</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45904</v>
+        <v>46368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76765</v>
+        <v>76331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1430411295908333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1084139874396137</v>
+        <v>0.1095115286724372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1813028055807826</v>
+        <v>0.1802758731932311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1624,19 +1624,19 @@
         <v>62647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49454</v>
+        <v>49301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77355</v>
+        <v>78850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2214739507424867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1748346763439406</v>
+        <v>0.1742939108181139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2734734021352742</v>
+        <v>0.2787585299861729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -1645,19 +1645,19 @@
         <v>123212</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103772</v>
+        <v>104107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145594</v>
+        <v>142737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.174453482619051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1469287355902655</v>
+        <v>0.147403539255452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.206144042145546</v>
+        <v>0.2020983772511818</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>80726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64770</v>
+        <v>64913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97910</v>
+        <v>100424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1906558798467287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1529730849196816</v>
+        <v>0.1533090435083053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2312410160958774</v>
+        <v>0.2371787690792273</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1695,19 +1695,19 @@
         <v>50667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38623</v>
+        <v>39320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63688</v>
+        <v>64294</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1791226030046762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1365442633622285</v>
+        <v>0.1390093235916443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2251569736378229</v>
+        <v>0.227298806416792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -1716,19 +1716,19 @@
         <v>131393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111313</v>
+        <v>112001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153718</v>
+        <v>154292</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1860368012720307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1576068700843747</v>
+        <v>0.1585804136124379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2176472189695499</v>
+        <v>0.2184592710951152</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>150134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>130067</v>
+        <v>130313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169082</v>
+        <v>169963</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3545839113022787</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3071884718641898</v>
+        <v>0.3077711259755384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3993347218094042</v>
+        <v>0.4014140847831324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -1766,19 +1766,19 @@
         <v>85679</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71663</v>
+        <v>71108</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102591</v>
+        <v>101658</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3029009024426058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.253348178435176</v>
+        <v>0.2513880973114029</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3626890886290796</v>
+        <v>0.3593925568890022</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>228</v>
@@ -1787,19 +1787,19 @@
         <v>235814</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>207747</v>
+        <v>209719</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>262021</v>
+        <v>263212</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3338848608789685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2941450216177195</v>
+        <v>0.2969377787687293</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3709915037963123</v>
+        <v>0.3726767311131692</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>70141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56174</v>
+        <v>55294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87384</v>
+        <v>87102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1656572681859517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.132669293928024</v>
+        <v>0.130591839905548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2063813465262876</v>
+        <v>0.205715911001121</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1837,19 +1837,19 @@
         <v>34447</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23885</v>
+        <v>25445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47469</v>
+        <v>47041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1217787755618563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08444172700798469</v>
+        <v>0.08995393957853126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1678154376303463</v>
+        <v>0.1663024445335765</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1858,19 +1858,19 @@
         <v>104588</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86253</v>
+        <v>85870</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126695</v>
+        <v>124185</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1480839273266567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1221237450290124</v>
+        <v>0.1215815984310051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.179385182861283</v>
+        <v>0.175831833677517</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>61844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48848</v>
+        <v>48117</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76303</v>
+        <v>78228</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1460618110742075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1153671965014488</v>
+        <v>0.1136410591351846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1802114529401447</v>
+        <v>0.1847580322708712</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1908,19 +1908,19 @@
         <v>49423</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37322</v>
+        <v>37472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63183</v>
+        <v>63234</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1747237682483749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1319428961736442</v>
+        <v>0.1324754207158107</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2233707756812993</v>
+        <v>0.2235501281128245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -1929,19 +1929,19 @@
         <v>111267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92461</v>
+        <v>90534</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>132439</v>
+        <v>130682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1575409279032931</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.130913567951457</v>
+        <v>0.1281853473761159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1875174795998378</v>
+        <v>0.1850303515013883</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>75713</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60706</v>
+        <v>59144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95802</v>
+        <v>93088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2072574247746537</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1661788187951358</v>
+        <v>0.1619021630577433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.262250469423524</v>
+        <v>0.2548203303234491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2054,19 +2054,19 @@
         <v>66486</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51637</v>
+        <v>51468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81671</v>
+        <v>81127</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2964424911802336</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2302326456322374</v>
+        <v>0.2294828706240041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3641484123727793</v>
+        <v>0.3617212399563025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -2075,19 +2075,19 @@
         <v>142199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119202</v>
+        <v>119773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163499</v>
+        <v>166075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2411835705058885</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2021795589467044</v>
+        <v>0.2031469055003596</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2773106043160394</v>
+        <v>0.2816809347947026</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>61147</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46100</v>
+        <v>47253</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79050</v>
+        <v>78939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1673851135493402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1261940529649478</v>
+        <v>0.1293527383935805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2163924335782811</v>
+        <v>0.2160902449574038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -2125,19 +2125,19 @@
         <v>33123</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22487</v>
+        <v>22742</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45867</v>
+        <v>46153</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1476847858226066</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1002641216252023</v>
+        <v>0.1013992164290757</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2045060942653971</v>
+        <v>0.2057849192425782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>82</v>
@@ -2146,19 +2146,19 @@
         <v>94270</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75711</v>
+        <v>76299</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113417</v>
+        <v>116653</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1598910765278189</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1284136497546412</v>
+        <v>0.1294116461946638</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1923666025349482</v>
+        <v>0.1978558632677372</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>114750</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>96127</v>
+        <v>97535</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132824</v>
+        <v>136116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3141187467265282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2631415589895245</v>
+        <v>0.2669943660932602</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3635954882417835</v>
+        <v>0.3726074919381567</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2196,19 +2196,19 @@
         <v>64715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51282</v>
+        <v>51492</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80114</v>
+        <v>79469</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2885477627994864</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2286522220572674</v>
+        <v>0.2295879053510669</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3572071275386775</v>
+        <v>0.3543294964950314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>162</v>
@@ -2217,19 +2217,19 @@
         <v>179465</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>156131</v>
+        <v>155140</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>203750</v>
+        <v>202872</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3043915024449048</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2648137042902926</v>
+        <v>0.2631332056778634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3455815645428225</v>
+        <v>0.3440916345180967</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>56568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43733</v>
+        <v>43064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73383</v>
+        <v>71945</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1548505718381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1197146183297106</v>
+        <v>0.1178842177127044</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2008792067120458</v>
+        <v>0.1969442797343695</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2267,19 +2267,19 @@
         <v>36016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25453</v>
+        <v>25894</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48295</v>
+        <v>48720</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1605854477949509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1134877926505522</v>
+        <v>0.1154522936464535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2153344226867835</v>
+        <v>0.2172305883573302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -2288,19 +2288,19 @@
         <v>92584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74478</v>
+        <v>73814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113215</v>
+        <v>110585</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1570321280705962</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1263225906276628</v>
+        <v>0.1251961469199509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1920246960596235</v>
+        <v>0.1875634936767573</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>57130</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44111</v>
+        <v>43442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71549</v>
+        <v>72936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1563881431113778</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1207494461683373</v>
+        <v>0.1189182665208581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1958606200711315</v>
+        <v>0.1996579154282616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -2338,19 +2338,19 @@
         <v>23940</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14989</v>
+        <v>14255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36164</v>
+        <v>36415</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1067395124027224</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06683020473994945</v>
+        <v>0.06356109489775068</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1612465669018224</v>
+        <v>0.1623636829981325</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -2359,19 +2359,19 @@
         <v>81069</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64245</v>
+        <v>64026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>99850</v>
+        <v>101844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1375017224507916</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1089659658343542</v>
+        <v>0.1085946419243492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.169356433062741</v>
+        <v>0.172737556472508</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>30710</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21184</v>
+        <v>20903</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42179</v>
+        <v>41366</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1951681155383559</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1346275970691868</v>
+        <v>0.1328452761669506</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2680567624933618</v>
+        <v>0.2628883749970549</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -2484,19 +2484,19 @@
         <v>12737</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6971</v>
+        <v>7286</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20824</v>
+        <v>20159</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1827589604616636</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1000211637734841</v>
+        <v>0.1045410783449955</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2988069152468384</v>
+        <v>0.2892673719074594</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2505,19 +2505,19 @@
         <v>43446</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31547</v>
+        <v>32363</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55667</v>
+        <v>57034</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1913591147417819</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1389505580203439</v>
+        <v>0.1425411605980178</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2451830940498481</v>
+        <v>0.2512049957041594</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>21565</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13957</v>
+        <v>13873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31366</v>
+        <v>31461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1370529336086785</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08870049533876295</v>
+        <v>0.08816835437044285</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1993359302709574</v>
+        <v>0.1999391588551318</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2555,19 +2555,19 @@
         <v>9253</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4165</v>
+        <v>4938</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15811</v>
+        <v>16192</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.132776814609887</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05976342842833252</v>
+        <v>0.0708513663457212</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2268771831160135</v>
+        <v>0.2323467733514491</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2576,19 +2576,19 @@
         <v>30819</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21038</v>
+        <v>21634</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40663</v>
+        <v>42731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1357403752135276</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0926633481377606</v>
+        <v>0.09528551832992335</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1791001550669538</v>
+        <v>0.1882072073637504</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>50097</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38593</v>
+        <v>38252</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61726</v>
+        <v>62636</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.318377766255798</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.245269461884668</v>
+        <v>0.2430987288021584</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3922839015156488</v>
+        <v>0.398063244721014</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -2626,19 +2626,19 @@
         <v>24605</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15847</v>
+        <v>16547</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32907</v>
+        <v>33595</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3530561974332057</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2273834589641601</v>
+        <v>0.2374355327839972</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.472180287131637</v>
+        <v>0.4820546225462404</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>68</v>
@@ -2647,19 +2647,19 @@
         <v>74702</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>60700</v>
+        <v>61205</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>89371</v>
+        <v>90516</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3290223404562432</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.267354066132091</v>
+        <v>0.2695766564082985</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3936341214324127</v>
+        <v>0.3986767435973717</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>29577</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20871</v>
+        <v>20308</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41347</v>
+        <v>40688</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1879678857597977</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1326367434613129</v>
+        <v>0.1290593438239337</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2627669806675698</v>
+        <v>0.2585832942096942</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -2697,19 +2697,19 @@
         <v>15981</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9529</v>
+        <v>9595</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23812</v>
+        <v>24426</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2293094775523395</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1367389931689954</v>
+        <v>0.1376841854380677</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3416816070957258</v>
+        <v>0.3504939543838366</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -2718,19 +2718,19 @@
         <v>45558</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33509</v>
+        <v>34987</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57991</v>
+        <v>59578</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2006577228273674</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1475883304997795</v>
+        <v>0.1541014646120536</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2554225756051967</v>
+        <v>0.2624112561900927</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>25402</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17333</v>
+        <v>16917</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36526</v>
+        <v>36022</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1614332988373698</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1101552366714101</v>
+        <v>0.1075138783232012</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2321327469451933</v>
+        <v>0.2289288121882282</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2768,19 +2768,19 @@
         <v>7115</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2877</v>
+        <v>3022</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13566</v>
+        <v>14446</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1020985499429042</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04128599973801392</v>
+        <v>0.04336018816635164</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1946589845075304</v>
+        <v>0.2072901367516424</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -2789,19 +2789,19 @@
         <v>32517</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21873</v>
+        <v>22329</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44325</v>
+        <v>44165</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1432204467610799</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09633741587620372</v>
+        <v>0.09834933109249665</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1952275158808875</v>
+        <v>0.194523406343127</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>263343</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>235593</v>
+        <v>234496</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>298002</v>
+        <v>296358</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1864253242227741</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1667804303087455</v>
+        <v>0.1660044929964384</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2109615613822207</v>
+        <v>0.2097977227299648</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>203</v>
@@ -2914,19 +2914,19 @@
         <v>220885</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>196608</v>
+        <v>194579</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>249245</v>
+        <v>248777</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2350874220191967</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2092490845049665</v>
+        <v>0.2070896208535951</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2652710481449569</v>
+        <v>0.2647734975044537</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>444</v>
@@ -2935,19 +2935,19 @@
         <v>484228</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>445524</v>
+        <v>445672</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>526425</v>
+        <v>527071</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2058635809916918</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1894090491938789</v>
+        <v>0.1894721067770157</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.223803234996013</v>
+        <v>0.2240780362897513</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>258212</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>227986</v>
+        <v>225673</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>287639</v>
+        <v>286576</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.182792888714896</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.161395619925523</v>
+        <v>0.1597580667372284</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2036252186867452</v>
+        <v>0.202872785557905</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>150</v>
@@ -2985,19 +2985,19 @@
         <v>162057</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>139217</v>
+        <v>139469</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>185017</v>
+        <v>188293</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1724772125459423</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1481688221017496</v>
+        <v>0.1484371300508388</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1969131458012179</v>
+        <v>0.200399977470362</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>389</v>
@@ -3006,19 +3006,19 @@
         <v>420269</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>381597</v>
+        <v>382345</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>460831</v>
+        <v>459546</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1786722533293029</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1622315018847116</v>
+        <v>0.1625496066013592</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1959170083321961</v>
+        <v>0.1953706550227503</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>441591</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>407325</v>
+        <v>406600</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>477904</v>
+        <v>478238</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3126104178436344</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2883532155723879</v>
+        <v>0.2878395448966153</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3383176234970022</v>
+        <v>0.3385538504765535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>252</v>
@@ -3056,19 +3056,19 @@
         <v>272063</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>245423</v>
+        <v>242425</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300835</v>
+        <v>299832</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2895561723600197</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.261203732821882</v>
+        <v>0.2580128766556017</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3201778303172443</v>
+        <v>0.3191109129590534</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>675</v>
@@ -3077,19 +3077,19 @@
         <v>713654</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>665761</v>
+        <v>672703</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>763236</v>
+        <v>759845</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3034013133533403</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2830402046872776</v>
+        <v>0.2859915663071325</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3244806317906721</v>
+        <v>0.3230392115672717</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>226349</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>199527</v>
+        <v>198176</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>256090</v>
+        <v>256156</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1602366205084599</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1412490314893687</v>
+        <v>0.1402922870565594</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.181291171370091</v>
+        <v>0.1813376102047514</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>142</v>
@@ -3127,19 +3127,19 @@
         <v>151640</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>129493</v>
+        <v>130821</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>177162</v>
+        <v>175776</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1613904522311733</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1378195533404894</v>
+        <v>0.1392327475702059</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1885534882180653</v>
+        <v>0.1870781619546229</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>358</v>
@@ -3148,19 +3148,19 @@
         <v>377989</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>340623</v>
+        <v>343585</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>412833</v>
+        <v>416281</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1606975229008733</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1448117455019129</v>
+        <v>0.1460709713016198</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1755110044761131</v>
+        <v>0.176977090344929</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>223097</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>196961</v>
+        <v>196919</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>254746</v>
+        <v>252502</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1579347487102357</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1394324298837562</v>
+        <v>0.1394026936249459</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1803395717448459</v>
+        <v>0.1787509942399701</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>120</v>
@@ -3198,19 +3198,19 @@
         <v>132941</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>113687</v>
+        <v>109575</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>158622</v>
+        <v>154721</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.141488740843668</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1209969144315044</v>
+        <v>0.1166206840029227</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1688209119322432</v>
+        <v>0.164669683229772</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>327</v>
@@ -3219,19 +3219,19 @@
         <v>356038</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>320710</v>
+        <v>320924</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>392461</v>
+        <v>395085</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1513653294247917</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1363460023361868</v>
+        <v>0.1364371732283828</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1668500243995555</v>
+        <v>0.1679656166321339</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>23351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15670</v>
+        <v>15952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31860</v>
+        <v>32741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2951705915842829</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980756364315485</v>
+        <v>0.2016408417362239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4027410408760633</v>
+        <v>0.4138773245259544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3585,19 +3585,19 @@
         <v>25592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17807</v>
+        <v>18282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34555</v>
+        <v>34232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2786161617438882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1938593993012738</v>
+        <v>0.1990273052533431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3761922206364414</v>
+        <v>0.3726751002352877</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3606,19 +3606,19 @@
         <v>48943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37818</v>
+        <v>38637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61376</v>
+        <v>61539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2862762978166527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2212054754258892</v>
+        <v>0.225994949905344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.358999496838783</v>
+        <v>0.3599548182504411</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>8560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4173</v>
+        <v>4118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15197</v>
+        <v>15517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.108203771910616</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05275336339804678</v>
+        <v>0.05205174250247253</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1921063182593876</v>
+        <v>0.1961514018372178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3656,19 +3656,19 @@
         <v>16998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10884</v>
+        <v>10819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25255</v>
+        <v>25273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1850476280420608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1184891504097577</v>
+        <v>0.1177784530601953</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.274947085678697</v>
+        <v>0.2751393685616126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -3677,19 +3677,19 @@
         <v>25557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16379</v>
+        <v>17814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36114</v>
+        <v>37409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1494901126218397</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09580318493584893</v>
+        <v>0.1041999344707277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.211237542906739</v>
+        <v>0.2188128720144673</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>20669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14444</v>
+        <v>13000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28969</v>
+        <v>28593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2612746643545912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1825854641553525</v>
+        <v>0.1643305619296972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3661857464983453</v>
+        <v>0.3614372813559086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -3727,19 +3727,19 @@
         <v>25704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18230</v>
+        <v>17623</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34841</v>
+        <v>33842</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2798359313577198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1984686104206158</v>
+        <v>0.1918549787645007</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3793037584056562</v>
+        <v>0.3684254304169559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -3748,19 +3748,19 @@
         <v>46374</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34496</v>
+        <v>35816</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57856</v>
+        <v>59141</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2712471830711471</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2017759311293024</v>
+        <v>0.2094964716475148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.338409326688793</v>
+        <v>0.3459238887847988</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>22121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14918</v>
+        <v>14594</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30397</v>
+        <v>30735</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2796247207122635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1885767312431882</v>
+        <v>0.1844767652023966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3842460989306771</v>
+        <v>0.3885185112049692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3798,19 +3798,19 @@
         <v>13892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8358</v>
+        <v>8270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21775</v>
+        <v>22624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1512433215498457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09098868298666195</v>
+        <v>0.09003502088881771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2370560707258527</v>
+        <v>0.2462984287402962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3819,19 +3819,19 @@
         <v>36013</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26194</v>
+        <v>26467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48348</v>
+        <v>47812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2106485077312722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1532115365186589</v>
+        <v>0.1548083047128405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2827950828193144</v>
+        <v>0.2796599609103989</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>4408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9924</v>
+        <v>10514</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05572625143824644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0134095592911401</v>
+        <v>0.013610849831259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1254521605801835</v>
+        <v>0.1329025014877349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3869,19 +3869,19 @@
         <v>9668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4818</v>
+        <v>4896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15541</v>
+        <v>15870</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1052569573064854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05245447624347466</v>
+        <v>0.05330007927118218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1691892933541229</v>
+        <v>0.1727711233850221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -3890,19 +3890,19 @@
         <v>14077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7947</v>
+        <v>7641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22811</v>
+        <v>22296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08233789875908828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04648480881011795</v>
+        <v>0.04469290739936378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1334273073729697</v>
+        <v>0.1304118782043813</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>74318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58993</v>
+        <v>58344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90076</v>
+        <v>89996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.215924368230725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1713987450583526</v>
+        <v>0.1695122934944549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2617093991552473</v>
+        <v>0.2614758589033557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -4015,19 +4015,19 @@
         <v>66275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53792</v>
+        <v>54239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82470</v>
+        <v>81188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2421299147385503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1965265506445767</v>
+        <v>0.1981568238413325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3012972728024937</v>
+        <v>0.2966132206763499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -4036,19 +4036,19 @@
         <v>140593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120854</v>
+        <v>121895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162515</v>
+        <v>161652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2275328262279145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1955875993997957</v>
+        <v>0.1972726646373379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2630111873283239</v>
+        <v>0.2616147002807518</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>58976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46144</v>
+        <v>46020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75955</v>
+        <v>73818</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1713492753260716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1340683419266419</v>
+        <v>0.1337074342897933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.220681701081148</v>
+        <v>0.2144722764437089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -4086,19 +4086,19 @@
         <v>58884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46719</v>
+        <v>45114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73377</v>
+        <v>72019</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2151285268511746</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1706830743213663</v>
+        <v>0.1648188417216291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2680775054389365</v>
+        <v>0.263115818941524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>119</v>
@@ -4107,19 +4107,19 @@
         <v>117860</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99932</v>
+        <v>100712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136551</v>
+        <v>137606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1907424828795107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1617285500685004</v>
+        <v>0.1629897553672162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2209908415102875</v>
+        <v>0.2226984714621884</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>98840</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83184</v>
+        <v>81224</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117229</v>
+        <v>117388</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2871713313305447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2416835380802732</v>
+        <v>0.235989936810532</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3405983089745394</v>
+        <v>0.3410594906200514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -4157,19 +4157,19 @@
         <v>70435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57234</v>
+        <v>57493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86272</v>
+        <v>85308</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2573299057789354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2090997025615419</v>
+        <v>0.2100465875761954</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3151876397512441</v>
+        <v>0.3116649427211118</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -4178,19 +4178,19 @@
         <v>169276</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147004</v>
+        <v>148146</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190964</v>
+        <v>192994</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2739522620396725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2379083684286222</v>
+        <v>0.2397564937468395</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3090517124419181</v>
+        <v>0.3123379082926117</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>71850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56705</v>
+        <v>56727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88953</v>
+        <v>87907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.208752918718882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1647518199312147</v>
+        <v>0.1648158730673622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2584462412471797</v>
+        <v>0.2554065649833316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -4228,19 +4228,19 @@
         <v>50409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39373</v>
+        <v>38735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63143</v>
+        <v>62782</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.18416690669816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1438475408936535</v>
+        <v>0.1415161041160869</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2306885739179428</v>
+        <v>0.2293696414574303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -4249,19 +4249,19 @@
         <v>122259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104068</v>
+        <v>103091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141758</v>
+        <v>141453</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1978618774740172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1684207273141183</v>
+        <v>0.1668395733090715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2294178140909494</v>
+        <v>0.2289252633080285</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>40202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29403</v>
+        <v>29122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53613</v>
+        <v>54219</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1168021063937767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08542761806951885</v>
+        <v>0.08461084744598958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1557672536022322</v>
+        <v>0.1575273607419965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -4299,19 +4299,19 @@
         <v>27712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19498</v>
+        <v>19405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39219</v>
+        <v>39364</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1012447459331797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07123370672171088</v>
+        <v>0.07089355002785128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1432849077443555</v>
+        <v>0.1438124997920641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -4320,19 +4320,19 @@
         <v>67914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52493</v>
+        <v>51733</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83332</v>
+        <v>83210</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1099105513788851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08495320732954266</v>
+        <v>0.08372378197181063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1348632299533833</v>
+        <v>0.1346646122407904</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>102018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85588</v>
+        <v>85453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120896</v>
+        <v>120171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2219772366465008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1862275507465789</v>
+        <v>0.1859348585822586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2630521520247058</v>
+        <v>0.2614762101305332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -4445,19 +4445,19 @@
         <v>86826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70962</v>
+        <v>71232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103202</v>
+        <v>103454</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2735426806821286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2235636215891932</v>
+        <v>0.2244146296774782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3251348225228072</v>
+        <v>0.3259284817483073</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -4466,19 +4466,19 @@
         <v>188844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>165806</v>
+        <v>165832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214777</v>
+        <v>213474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2430422905776169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2133920185354506</v>
+        <v>0.2134260938797562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2764184573549157</v>
+        <v>0.2747412400591864</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>89341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71321</v>
+        <v>72256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107756</v>
+        <v>106400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1943941014059412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1551841237531644</v>
+        <v>0.1572193134766652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2344624318847271</v>
+        <v>0.2315127054137866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -4516,19 +4516,19 @@
         <v>54019</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41981</v>
+        <v>42413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69571</v>
+        <v>69633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1701847864421876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.132259665381884</v>
+        <v>0.1336193184828161</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2191819533249445</v>
+        <v>0.2193768562527868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -4537,19 +4537,19 @@
         <v>143360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123144</v>
+        <v>121312</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>167544</v>
+        <v>164496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1845043286155723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1584868623494702</v>
+        <v>0.1561289587475363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2156285824403913</v>
+        <v>0.2117067276594399</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>133131</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114195</v>
+        <v>113806</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152956</v>
+        <v>152800</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2896743514126557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2484734611972025</v>
+        <v>0.2476251917391096</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3328107034540048</v>
+        <v>0.3324711395015859</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -4587,19 +4587,19 @@
         <v>97987</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83854</v>
+        <v>84008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116028</v>
+        <v>114087</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3087034210692073</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2641776008320822</v>
+        <v>0.2646646700643848</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3655406531584321</v>
+        <v>0.3594256931831176</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>225</v>
@@ -4608,19 +4608,19 @@
         <v>231117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>207269</v>
+        <v>207027</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>258101</v>
+        <v>258697</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2974479367287691</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2667545835587388</v>
+        <v>0.2664442874344056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3321755333957611</v>
+        <v>0.3329423139412048</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>84968</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69674</v>
+        <v>71044</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103009</v>
+        <v>103756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1848787293053138</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1516013667569308</v>
+        <v>0.1545808492325864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2241332338399959</v>
+        <v>0.2257592709300671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -4658,19 +4658,19 @@
         <v>55277</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43164</v>
+        <v>42031</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70061</v>
+        <v>71072</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1741469727782436</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1359865450361455</v>
+        <v>0.1324159809121898</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2207239132966018</v>
+        <v>0.2239102400818241</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -4679,19 +4679,19 @@
         <v>140245</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120824</v>
+        <v>119570</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163452</v>
+        <v>164697</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1804946881272305</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1555001981434758</v>
+        <v>0.1538860215283434</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2103621392745839</v>
+        <v>0.2119656075042108</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>50130</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37063</v>
+        <v>36936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64467</v>
+        <v>65772</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1090755812295884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08064425483935873</v>
+        <v>0.08036862115852231</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1402714498099516</v>
+        <v>0.143110835323365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -4729,19 +4729,19 @@
         <v>23305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15656</v>
+        <v>15575</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34111</v>
+        <v>34032</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07342213902823291</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04932329168339547</v>
+        <v>0.04906957889228145</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.107465145480653</v>
+        <v>0.1072177813221794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -4750,19 +4750,19 @@
         <v>73435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57085</v>
+        <v>59790</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91818</v>
+        <v>91275</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09451075595081124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07346798600584487</v>
+        <v>0.07694914143362065</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1181697245717295</v>
+        <v>0.117471524893284</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>90789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74817</v>
+        <v>74428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108425</v>
+        <v>108162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2468908176349217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2034577396645353</v>
+        <v>0.2023995425399479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.294850129149149</v>
+        <v>0.2941367696528023</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -4875,19 +4875,19 @@
         <v>57052</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43144</v>
+        <v>44836</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70658</v>
+        <v>69905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2346663827018866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1774613224942179</v>
+        <v>0.1844210549206807</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2906317908475689</v>
+        <v>0.2875359605790676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -4896,19 +4896,19 @@
         <v>147840</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127738</v>
+        <v>127228</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171004</v>
+        <v>171117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2420254676124706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2091167785115981</v>
+        <v>0.2082810305995058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2799457565075983</v>
+        <v>0.2801311007368926</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>59200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45841</v>
+        <v>44950</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75325</v>
+        <v>74978</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1609879392267795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1246593490365721</v>
+        <v>0.1222383093506146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2048398172548157</v>
+        <v>0.203893948511507</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -4946,19 +4946,19 @@
         <v>40343</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29558</v>
+        <v>29174</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>53536</v>
+        <v>51961</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1659410477996964</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1215785452116001</v>
+        <v>0.1199990045137345</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2202071614722096</v>
+        <v>0.2137268733499694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>92</v>
@@ -4967,19 +4967,19 @@
         <v>99543</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>81336</v>
+        <v>81521</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>119358</v>
+        <v>120154</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1629592865355472</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1331534159242604</v>
+        <v>0.1334565619320203</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1953974478707264</v>
+        <v>0.1967003002645569</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>111297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>93860</v>
+        <v>94629</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>129253</v>
+        <v>130721</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3026620013936901</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2552420667579296</v>
+        <v>0.2573331707564241</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3514907181177846</v>
+        <v>0.3554837881624097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -5017,19 +5017,19 @@
         <v>80511</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65470</v>
+        <v>67253</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>94986</v>
+        <v>97953</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.331159108213272</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2692946636361324</v>
+        <v>0.2766250057204663</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3906976395868628</v>
+        <v>0.4029042859916431</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>176</v>
@@ -5038,19 +5038,19 @@
         <v>191808</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>169917</v>
+        <v>168042</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>217344</v>
+        <v>215599</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.314003907998286</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2781668123424402</v>
+        <v>0.2750966558911603</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3558079376127585</v>
+        <v>0.3529522380542462</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>60745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47679</v>
+        <v>46727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77632</v>
+        <v>75656</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1651888556196801</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1296588156237141</v>
+        <v>0.1270694635042487</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2111138435442523</v>
+        <v>0.2057390016819533</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -5088,19 +5088,19 @@
         <v>41116</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30521</v>
+        <v>30101</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54997</v>
+        <v>54474</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1691198438617016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.125541917322301</v>
+        <v>0.1238142381916732</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2262169253864019</v>
+        <v>0.2240633319035704</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -5109,19 +5109,19 @@
         <v>101861</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85142</v>
+        <v>84767</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123046</v>
+        <v>123195</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1667533969531931</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1393844899085356</v>
+        <v>0.138769105328154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2014358314958077</v>
+        <v>0.2016799702907992</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>45698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33555</v>
+        <v>34063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61164</v>
+        <v>61945</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1242703861249287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09124887556111563</v>
+        <v>0.09263201776486274</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1663300799477612</v>
+        <v>0.1684539688619577</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -5159,19 +5159,19 @@
         <v>24096</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15613</v>
+        <v>15802</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35739</v>
+        <v>35070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09911361742344339</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06421880355401405</v>
+        <v>0.06499736896818288</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1470026855326563</v>
+        <v>0.144250359002839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>62</v>
@@ -5180,19 +5180,19 @@
         <v>69794</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54419</v>
+        <v>55498</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>87999</v>
+        <v>87952</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1142579409005031</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08908763090208105</v>
+        <v>0.09085386541590088</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1440605512954553</v>
+        <v>0.1439843260109708</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>37330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27370</v>
+        <v>27551</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49942</v>
+        <v>51289</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2252534999056405</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1651519444049943</v>
+        <v>0.1662427532267355</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3013546273250778</v>
+        <v>0.3094808004986113</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -5305,19 +5305,19 @@
         <v>24709</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16066</v>
+        <v>16754</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34070</v>
+        <v>34932</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2333698359796755</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1517346928244772</v>
+        <v>0.1582336377210088</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3217799263623473</v>
+        <v>0.3299237864334549</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>55</v>
@@ -5326,19 +5326,19 @@
         <v>62039</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>48377</v>
+        <v>50429</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75276</v>
+        <v>79291</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.228417460307415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1781137103652729</v>
+        <v>0.1856712056225597</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2771520731674923</v>
+        <v>0.291935619111258</v>
       </c>
     </row>
     <row r="29">
@@ -5358,16 +5358,16 @@
         <v>18898</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40907</v>
+        <v>40345</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.171741002610461</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1140326897038073</v>
+        <v>0.1140312649986714</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2468355630827464</v>
+        <v>0.2434443396858081</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -5376,19 +5376,19 @@
         <v>23786</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15207</v>
+        <v>15535</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33705</v>
+        <v>33430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2246551086298679</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1436271103491921</v>
+        <v>0.1467214400246928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3183348273222657</v>
+        <v>0.3157394034117114</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>44</v>
@@ -5397,19 +5397,19 @@
         <v>52248</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39045</v>
+        <v>38591</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68855</v>
+        <v>67421</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1923683071741899</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1437555995717667</v>
+        <v>0.1420841891697857</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2535100930759157</v>
+        <v>0.2482310916963813</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>62950</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50402</v>
+        <v>49825</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>75578</v>
+        <v>76327</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3798419855391584</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3041299436066782</v>
+        <v>0.3006457339995317</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4560407752064163</v>
+        <v>0.4605591883668306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -5447,19 +5447,19 @@
         <v>26346</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17483</v>
+        <v>17448</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36176</v>
+        <v>36509</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2488278090472399</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1651193152649285</v>
+        <v>0.1647910534629667</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3416718368298065</v>
+        <v>0.3448149961907545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>78</v>
@@ -5468,19 +5468,19 @@
         <v>89295</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>73934</v>
+        <v>73484</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>106389</v>
+        <v>105142</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3287692277442187</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2722115067485885</v>
+        <v>0.2705563450986924</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3917044739494878</v>
+        <v>0.3871119139240443</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>17426</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10688</v>
+        <v>10491</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26958</v>
+        <v>26370</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.105149930164868</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06449307390662302</v>
+        <v>0.06330290527748769</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1626652344049906</v>
+        <v>0.159119517132767</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -5518,19 +5518,19 @@
         <v>18476</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10872</v>
+        <v>11468</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28686</v>
+        <v>29083</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1744994576352119</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1026832613930914</v>
+        <v>0.1083101269256188</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2709347242211749</v>
+        <v>0.27468289709327</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>31</v>
@@ -5539,19 +5539,19 @@
         <v>35902</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25776</v>
+        <v>25066</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>49863</v>
+        <v>49221</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1321841925212388</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09490193927756575</v>
+        <v>0.09228940574701976</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1835882611870092</v>
+        <v>0.181221441173787</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>19558</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12192</v>
+        <v>11214</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30013</v>
+        <v>30293</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1180135817798721</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07356821453751845</v>
+        <v>0.06766392621031783</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1811015467538187</v>
+        <v>0.1827881409247812</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -5589,19 +5589,19 @@
         <v>12562</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6827</v>
+        <v>6755</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21433</v>
+        <v>21068</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1186477887080048</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06447675906585547</v>
+        <v>0.06379574433427414</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2024298545974216</v>
+        <v>0.1989815688841652</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -5610,19 +5610,19 @@
         <v>32120</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21854</v>
+        <v>21622</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44622</v>
+        <v>44519</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1182608122529377</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08046195870141727</v>
+        <v>0.0796087657830109</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1642899680157961</v>
+        <v>0.1639126587803684</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>327806</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>295739</v>
+        <v>298787</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>359498</v>
+        <v>366090</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2314462774099774</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2088058117873096</v>
+        <v>0.2109573479358015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2538223645943802</v>
+        <v>0.2584769372453822</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>253</v>
@@ -5735,19 +5735,19 @@
         <v>260454</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>233368</v>
+        <v>233202</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>288551</v>
+        <v>290425</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2523822850810882</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2261355640483041</v>
+        <v>0.2259746254508813</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2796088424533376</v>
+        <v>0.2814247485902545</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>557</v>
@@ -5756,19 +5756,19 @@
         <v>588260</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>548973</v>
+        <v>540595</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>632011</v>
+        <v>629164</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2402709365997914</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2242244589271327</v>
+        <v>0.2208024391185615</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2581407308344519</v>
+        <v>0.256977935675242</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>244539</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>216352</v>
+        <v>214765</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>277737</v>
+        <v>272105</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1726558091181139</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1527546199995671</v>
+        <v>0.1516343172124934</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1960955147887831</v>
+        <v>0.1921189619949118</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>190</v>
@@ -5806,19 +5806,19 @@
         <v>194030</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>170194</v>
+        <v>167918</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>221503</v>
+        <v>221662</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1880170599121515</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1649195533599453</v>
+        <v>0.1627141238929888</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.214637981870043</v>
+        <v>0.2147922964378869</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>419</v>
@@ -5827,19 +5827,19 @@
         <v>438569</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>402996</v>
+        <v>402636</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>478352</v>
+        <v>482728</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1791306731474052</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1646013658404589</v>
+        <v>0.1644540421049672</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1953798190031194</v>
+        <v>0.1971672914375739</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>426887</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>389511</v>
+        <v>391689</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>462794</v>
+        <v>463272</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3014024140017686</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2750130688084947</v>
+        <v>0.2765509700683779</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3267539252927733</v>
+        <v>0.3270913127634762</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>297</v>
@@ -5877,19 +5877,19 @@
         <v>300983</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>273497</v>
+        <v>274960</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>335514</v>
+        <v>333680</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2916550932061491</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2650209434403253</v>
+        <v>0.2664389779249661</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3251158255631336</v>
+        <v>0.3233390920975265</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>692</v>
@@ -5898,19 +5898,19 @@
         <v>727870</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>685342</v>
+        <v>683275</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>772636</v>
+        <v>776989</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2972938568505491</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2799237628283521</v>
+        <v>0.2790794279545913</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3155781639794837</v>
+        <v>0.3173562666385464</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>257109</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>227805</v>
+        <v>223879</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>287463</v>
+        <v>286813</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1815311899661768</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1608408595389476</v>
+        <v>0.1580692590286832</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2029625542876175</v>
+        <v>0.2025033376148514</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>173</v>
@@ -5948,19 +5948,19 @@
         <v>179170</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>155425</v>
+        <v>155282</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>203215</v>
+        <v>204132</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1736178372774181</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1506079745434218</v>
+        <v>0.1504692981961596</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.19691690317254</v>
+        <v>0.1978061755745335</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>415</v>
@@ -5969,19 +5969,19 @@
         <v>436280</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>400779</v>
+        <v>400223</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>479535</v>
+        <v>477899</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1781956619312185</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1636954980084617</v>
+        <v>0.1634684711530223</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1958630974242647</v>
+        <v>0.1951948960143904</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>159996</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>136487</v>
+        <v>137326</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>184460</v>
+        <v>185706</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1129643095039631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09636586941005647</v>
+        <v>0.09695873126030964</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1302377063382563</v>
+        <v>0.1311171777921776</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>95</v>
@@ -6019,19 +6019,19 @@
         <v>97345</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>79818</v>
+        <v>82048</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>119750</v>
+        <v>117637</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09432772452319305</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07734482028223254</v>
+        <v>0.07950545533022808</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1160388330650902</v>
+        <v>0.11399166491081</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>242</v>
@@ -6040,19 +6040,19 @@
         <v>257340</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>228863</v>
+        <v>228496</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>290540</v>
+        <v>291231</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1051088714710358</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09347746243529492</v>
+        <v>0.09332768279428919</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1186693391423329</v>
+        <v>0.1189516115668698</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>13100</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5312</v>
+        <v>4739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22621</v>
+        <v>21683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4351533202600437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1764436813745701</v>
+        <v>0.1574215574112924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.751395519239764</v>
+        <v>0.7202473459412001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6406,19 +6406,19 @@
         <v>7258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2291</v>
+        <v>2369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14284</v>
+        <v>14303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.257672656463996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08134903827943002</v>
+        <v>0.08411503924732502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5071096616855802</v>
+        <v>0.5077934142727207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6427,19 +6427,19 @@
         <v>20358</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10502</v>
+        <v>10172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31424</v>
+        <v>32821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.349364191395524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1802297592987819</v>
+        <v>0.1745683198510788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5392716337329965</v>
+        <v>0.5632460863077852</v>
       </c>
     </row>
     <row r="5">
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9248</v>
+        <v>9288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1036056672265368</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3283183552725105</v>
+        <v>0.3297649292637598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -6493,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10311</v>
+        <v>10576</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05008004673120812</v>
+        <v>0.05008004673120813</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.176940805044617</v>
+        <v>0.1815019404396333</v>
       </c>
     </row>
     <row r="6">
@@ -6519,19 +6519,19 @@
         <v>6576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1562</v>
+        <v>1520</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14370</v>
+        <v>15195</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2184444041469537</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05187883171490779</v>
+        <v>0.050490006658037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.477315896950557</v>
+        <v>0.5047445049322319</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -6540,19 +6540,19 @@
         <v>11924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5905</v>
+        <v>5735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18179</v>
+        <v>19121</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.423339356034396</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2096529399140789</v>
+        <v>0.2035915137225852</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6454140048816601</v>
+        <v>0.6788576104228968</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -6561,19 +6561,19 @@
         <v>18500</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9189</v>
+        <v>9778</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29269</v>
+        <v>29996</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.31748482384789</v>
+        <v>0.3174848238478901</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1576864039558037</v>
+        <v>0.1678053327724953</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5022976308937164</v>
+        <v>0.5147742316162425</v>
       </c>
     </row>
     <row r="7">
@@ -6590,19 +6590,19 @@
         <v>10428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2768</v>
+        <v>2832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19229</v>
+        <v>19988</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3464022755930026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09195881058051063</v>
+        <v>0.09406264014086571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6387431241509258</v>
+        <v>0.6639413474595858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9147</v>
+        <v>8986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09445025212183797</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3247551628163864</v>
+        <v>0.3190304596858866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6632,19 +6632,19 @@
         <v>13089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5656</v>
+        <v>5343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26055</v>
+        <v>26278</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2246157995514049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09705759423622619</v>
+        <v>0.09169320973830922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4471269757931606</v>
+        <v>0.4509559667410132</v>
       </c>
     </row>
     <row r="8">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9572</v>
+        <v>9825</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1209320681532332</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3398364335084136</v>
+        <v>0.3488120256581874</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -6698,16 +6698,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11603</v>
+        <v>11314</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05845513847397291</v>
+        <v>0.05845513847397292</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1991139688052071</v>
+        <v>0.1941594048324226</v>
       </c>
     </row>
     <row r="9">
@@ -6799,19 +6799,19 @@
         <v>42847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30543</v>
+        <v>30073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58218</v>
+        <v>58031</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3614540731591271</v>
+        <v>0.3614540731591273</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2576552962440209</v>
+        <v>0.2536929053104874</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4911205182968968</v>
+        <v>0.4895423484602041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -6820,19 +6820,19 @@
         <v>33685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25129</v>
+        <v>24627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44447</v>
+        <v>43917</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3633808758507932</v>
+        <v>0.3633808758507931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2710802194227057</v>
+        <v>0.2656716882830118</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4794790901032104</v>
+        <v>0.4737642377463848</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -6841,19 +6841,19 @@
         <v>76532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61082</v>
+        <v>58067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94114</v>
+        <v>95054</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3622996202161056</v>
+        <v>0.3622996202161055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2891603061174746</v>
+        <v>0.2748849717154453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4455296617131934</v>
+        <v>0.4499830387898404</v>
       </c>
     </row>
     <row r="11">
@@ -6870,19 +6870,19 @@
         <v>13318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6396</v>
+        <v>6915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23032</v>
+        <v>23703</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.112350290710488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05395287421007295</v>
+        <v>0.05833177928256528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1942958745604176</v>
+        <v>0.1999592783225399</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6891,19 +6891,19 @@
         <v>15775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9675</v>
+        <v>9253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23719</v>
+        <v>23691</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1701718683485444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1043673739776437</v>
+        <v>0.09981708836464595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2558733001741765</v>
+        <v>0.2555641273111555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -6912,19 +6912,19 @@
         <v>29093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19813</v>
+        <v>19836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40851</v>
+        <v>42394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.137724380653985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09379505135909104</v>
+        <v>0.09390204045152969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1933861781919216</v>
+        <v>0.2006933149675827</v>
       </c>
     </row>
     <row r="12">
@@ -6941,19 +6941,19 @@
         <v>36560</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24151</v>
+        <v>24808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49981</v>
+        <v>51909</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3084186590199438</v>
+        <v>0.3084186590199437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2037363399181262</v>
+        <v>0.2092790968749075</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4216358780704905</v>
+        <v>0.4379010544124622</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6962,19 +6962,19 @@
         <v>19358</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12072</v>
+        <v>11989</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28025</v>
+        <v>28491</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.208827393595105</v>
+        <v>0.2088273935951049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1302321158698291</v>
+        <v>0.1293357270176035</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3023185018947553</v>
+        <v>0.3073447790639871</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -6983,19 +6983,19 @@
         <v>55918</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41720</v>
+        <v>40960</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72814</v>
+        <v>73061</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.264714598534169</v>
+        <v>0.2647145985341689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1975000522720167</v>
+        <v>0.1939028485169049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3446972889095022</v>
+        <v>0.3458662662676797</v>
       </c>
     </row>
     <row r="13">
@@ -7012,19 +7012,19 @@
         <v>11305</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3857</v>
+        <v>3847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24740</v>
+        <v>25301</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09536414116397064</v>
+        <v>0.09536414116397066</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03253631622210675</v>
+        <v>0.03245356387440977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2087024441565314</v>
+        <v>0.2134380451040159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -7033,19 +7033,19 @@
         <v>10628</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5372</v>
+        <v>5653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18353</v>
+        <v>19004</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1146550488309532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05795548693429426</v>
+        <v>0.06098313570835027</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1979828171582194</v>
+        <v>0.2050050379993829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -7054,19 +7054,19 @@
         <v>21933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12578</v>
+        <v>12529</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36473</v>
+        <v>37129</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1038296525911709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05954283881124182</v>
+        <v>0.0593097902461405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1726637134698555</v>
+        <v>0.1757684416654634</v>
       </c>
     </row>
     <row r="14">
@@ -7083,19 +7083,19 @@
         <v>14511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6601</v>
+        <v>5550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28502</v>
+        <v>27450</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1224128359464704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05568270770760475</v>
+        <v>0.04682244713838987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2404438426836996</v>
+        <v>0.2315695849371685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -7104,19 +7104,19 @@
         <v>13253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7845</v>
+        <v>7170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21709</v>
+        <v>22182</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1429648133746041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0846267190169729</v>
+        <v>0.07735209774273699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2341885479808468</v>
+        <v>0.2392905552842516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -7125,19 +7125,19 @@
         <v>27764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17331</v>
+        <v>16621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44040</v>
+        <v>42499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1314317480045696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08204506535475969</v>
+        <v>0.07868097103860271</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2084816021129471</v>
+        <v>0.2011905089725281</v>
       </c>
     </row>
     <row r="15">
@@ -7229,19 +7229,19 @@
         <v>40665</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28936</v>
+        <v>29535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52679</v>
+        <v>53360</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3412303278046448</v>
+        <v>0.3412303278046447</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2428039323674188</v>
+        <v>0.2478356436850596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4420364896036744</v>
+        <v>0.4477553269140784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -7250,19 +7250,19 @@
         <v>34459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26580</v>
+        <v>26301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43858</v>
+        <v>43584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3314038641322062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2556328214454556</v>
+        <v>0.2529486025792556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.42179358037896</v>
+        <v>0.4191580897580138</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -7271,19 +7271,19 @@
         <v>75124</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61656</v>
+        <v>59996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89804</v>
+        <v>90241</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3366516202669209</v>
+        <v>0.3366516202669208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2762947947989542</v>
+        <v>0.2688558914798231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4024341374242006</v>
+        <v>0.4043909324739722</v>
       </c>
     </row>
     <row r="17">
@@ -7300,19 +7300,19 @@
         <v>21230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13413</v>
+        <v>12994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31397</v>
+        <v>31316</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1781451195734002</v>
+        <v>0.1781451195734001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1125506832822895</v>
+        <v>0.109038406372345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2634559075668506</v>
+        <v>0.2627790810066659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -7321,19 +7321,19 @@
         <v>16921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11283</v>
+        <v>11514</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25219</v>
+        <v>24514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.162732145316675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1085125777469254</v>
+        <v>0.1107318479079173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2425348891001536</v>
+        <v>0.235762679588453</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -7342,19 +7342,19 @@
         <v>38151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28562</v>
+        <v>27777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50122</v>
+        <v>50614</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1709633394579398</v>
+        <v>0.1709633394579397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1279932599399955</v>
+        <v>0.1244765371031407</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.224609822278048</v>
+        <v>0.2268147866936207</v>
       </c>
     </row>
     <row r="18">
@@ -7371,19 +7371,19 @@
         <v>25001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16515</v>
+        <v>16906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35620</v>
+        <v>35348</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2097839806650322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1385827415194819</v>
+        <v>0.1418573010933758</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2988895915883764</v>
+        <v>0.2966147087319171</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -7392,19 +7392,19 @@
         <v>24116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17230</v>
+        <v>17288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31605</v>
+        <v>32422</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2319307914858452</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1657064595361117</v>
+        <v>0.1662636379104433</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3039549101521699</v>
+        <v>0.3118086149335342</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -7413,19 +7413,19 @@
         <v>49117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38018</v>
+        <v>38296</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60941</v>
+        <v>61176</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2201034376967844</v>
+        <v>0.2201034376967843</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1703672153799844</v>
+        <v>0.1716126131987247</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2730932223379998</v>
+        <v>0.2741441089770332</v>
       </c>
     </row>
     <row r="19">
@@ -7442,19 +7442,19 @@
         <v>20079</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12921</v>
+        <v>13144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30380</v>
+        <v>29965</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1684879440098838</v>
+        <v>0.1684879440098837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1084181628418287</v>
+        <v>0.1102950156358107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2549246136959092</v>
+        <v>0.251444490374974</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7463,19 +7463,19 @@
         <v>16179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10827</v>
+        <v>10760</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24295</v>
+        <v>22964</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1555998965436765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1041292833070945</v>
+        <v>0.1034824112990465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2336519804882252</v>
+        <v>0.2208497144663559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -7484,19 +7484,19 @@
         <v>36258</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26338</v>
+        <v>26740</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47641</v>
+        <v>47799</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1624826706941556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1180260174930221</v>
+        <v>0.1198276182405509</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.213490467152544</v>
+        <v>0.2141991179629306</v>
       </c>
     </row>
     <row r="20">
@@ -7513,19 +7513,19 @@
         <v>12198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5742</v>
+        <v>5834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21840</v>
+        <v>22676</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.102352627947039</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04817800720344129</v>
+        <v>0.04895072616429918</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.183260487393545</v>
+        <v>0.1902817742583017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -7534,19 +7534,19 @@
         <v>12304</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7360</v>
+        <v>7705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19066</v>
+        <v>18888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1183333025215971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07078505512745985</v>
+        <v>0.07410004159952543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1833630006695061</v>
+        <v>0.1816474414395445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -7555,19 +7555,19 @@
         <v>24502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15881</v>
+        <v>16234</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35589</v>
+        <v>36705</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1097989318841995</v>
+        <v>0.1097989318841994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07116640030921047</v>
+        <v>0.07274814949956671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1594827339059168</v>
+        <v>0.1644821278531898</v>
       </c>
     </row>
     <row r="21">
@@ -7659,19 +7659,19 @@
         <v>58005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46510</v>
+        <v>46444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69618</v>
+        <v>70451</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4228651169629268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3390614602782839</v>
+        <v>0.3385786930058791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5075227399627302</v>
+        <v>0.5135964604788633</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -7680,19 +7680,19 @@
         <v>43257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35549</v>
+        <v>35590</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51743</v>
+        <v>51244</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3562629781845711</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2927770617013362</v>
+        <v>0.2931148600362148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4261489651314532</v>
+        <v>0.4220366257078901</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -7701,19 +7701,19 @@
         <v>101263</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86123</v>
+        <v>86519</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115804</v>
+        <v>115788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3915925092769964</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3330462330976118</v>
+        <v>0.3345788773588046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4478241571427889</v>
+        <v>0.4477638561082158</v>
       </c>
     </row>
     <row r="23">
@@ -7730,19 +7730,19 @@
         <v>18957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11706</v>
+        <v>12030</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27364</v>
+        <v>27953</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1382017948950202</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08533516894124671</v>
+        <v>0.08770002600684776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1994883328718209</v>
+        <v>0.2037783653631668</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -7751,19 +7751,19 @@
         <v>20297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14386</v>
+        <v>14015</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27969</v>
+        <v>26995</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1671643519815544</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1184847828669393</v>
+        <v>0.1154229168260648</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2303518584287097</v>
+        <v>0.2223304924217467</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -7772,19 +7772,19 @@
         <v>39255</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29771</v>
+        <v>29724</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50950</v>
+        <v>49978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1518009780738476</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1151268774342853</v>
+        <v>0.1149465204227109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1970299001208583</v>
+        <v>0.1932713676250596</v>
       </c>
     </row>
     <row r="24">
@@ -7801,19 +7801,19 @@
         <v>34034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24419</v>
+        <v>24775</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44475</v>
+        <v>44899</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2481086530961522</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1780137605561887</v>
+        <v>0.1806159619155927</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3242300364683263</v>
+        <v>0.3273163205579159</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -7822,19 +7822,19 @@
         <v>32560</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25653</v>
+        <v>25588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40518</v>
+        <v>40753</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2681591590845887</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2112727469195518</v>
+        <v>0.2107426762384315</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3337039793999536</v>
+        <v>0.3356406827151491</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -7843,19 +7843,19 @@
         <v>66593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54391</v>
+        <v>54855</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>80308</v>
+        <v>79322</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2575232397623171</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2103343758329048</v>
+        <v>0.2121308650709838</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3105604268464439</v>
+        <v>0.3067464850580656</v>
       </c>
     </row>
     <row r="25">
@@ -7872,19 +7872,19 @@
         <v>14632</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8531</v>
+        <v>8033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23050</v>
+        <v>22995</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1066685441317813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06219223591559964</v>
+        <v>0.05856308250888061</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1680397373765018</v>
+        <v>0.1676353948312982</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7893,19 +7893,19 @@
         <v>15005</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9900</v>
+        <v>9748</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21772</v>
+        <v>21658</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1235814529518977</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08153744168788006</v>
+        <v>0.08028194142196539</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1793097587576792</v>
+        <v>0.1783730512912962</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -7914,19 +7914,19 @@
         <v>29637</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21625</v>
+        <v>21397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40690</v>
+        <v>40571</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1146098921434354</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08362714898261836</v>
+        <v>0.08274518539054086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1573521696687098</v>
+        <v>0.156890275801584</v>
       </c>
     </row>
     <row r="26">
@@ -7943,19 +7943,19 @@
         <v>11544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5954</v>
+        <v>5960</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20080</v>
+        <v>20175</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08415589091411971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04340860793703434</v>
+        <v>0.04345143205295197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1463867033155295</v>
+        <v>0.1470752889754769</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -7964,19 +7964,19 @@
         <v>10300</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6108</v>
+        <v>5793</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16614</v>
+        <v>15883</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08483205779738817</v>
+        <v>0.08483205779738819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05030420924320982</v>
+        <v>0.04771311468171132</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1368304620318449</v>
+        <v>0.1308110271417971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -7985,19 +7985,19 @@
         <v>21844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14052</v>
+        <v>14662</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30828</v>
+        <v>31679</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08447338074340346</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05434080495143109</v>
+        <v>0.05669907563600936</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1192142226845494</v>
+        <v>0.1225064713849354</v>
       </c>
     </row>
     <row r="27">
@@ -8089,19 +8089,19 @@
         <v>17393</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11168</v>
+        <v>11231</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25456</v>
+        <v>25373</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2535560922740292</v>
+        <v>0.2535560922740293</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1628010691830656</v>
+        <v>0.1637233978776622</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3710856334629217</v>
+        <v>0.3698813877489489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -8110,19 +8110,19 @@
         <v>9669</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5868</v>
+        <v>5903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14651</v>
+        <v>14340</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2355605131579834</v>
+        <v>0.2355605131579833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.142953438555159</v>
+        <v>0.1438120483212839</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.356912206623602</v>
+        <v>0.3493550884135943</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>35</v>
@@ -8131,19 +8131,19 @@
         <v>27063</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19191</v>
+        <v>19960</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35551</v>
+        <v>36104</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2468191044590101</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1750295921347667</v>
+        <v>0.1820416697468592</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3242344282343129</v>
+        <v>0.3292820925585532</v>
       </c>
     </row>
     <row r="29">
@@ -8160,19 +8160,19 @@
         <v>15688</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9316</v>
+        <v>9827</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22996</v>
+        <v>23707</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2287001854870279</v>
+        <v>0.228700185487028</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1358028426342461</v>
+        <v>0.1432591541277358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3352354680836657</v>
+        <v>0.3455984679788003</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -8181,19 +8181,19 @@
         <v>7593</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4299</v>
+        <v>4289</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12125</v>
+        <v>12265</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1849796591886464</v>
+        <v>0.1849796591886463</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1047428396185269</v>
+        <v>0.1044943292263219</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2953766389783802</v>
+        <v>0.2988079806269759</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -8202,19 +8202,19 @@
         <v>23281</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16330</v>
+        <v>16551</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32038</v>
+        <v>32726</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2123325736953192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1489375600220317</v>
+        <v>0.1509507423997412</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2921913688585659</v>
+        <v>0.2984725524547858</v>
       </c>
     </row>
     <row r="30">
@@ -8231,19 +8231,19 @@
         <v>22804</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15777</v>
+        <v>16190</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30668</v>
+        <v>30859</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3324251902395637</v>
+        <v>0.3324251902395639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2299880555923904</v>
+        <v>0.236014383668834</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4470671004093683</v>
+        <v>0.4498516321811667</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -8252,19 +8252,19 @@
         <v>15364</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10478</v>
+        <v>11019</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20660</v>
+        <v>21281</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3743030843304712</v>
+        <v>0.374303084330471</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.255255126128824</v>
+        <v>0.2684334057147618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5033028977774522</v>
+        <v>0.5184298892502378</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -8273,19 +8273,19 @@
         <v>38168</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29400</v>
+        <v>29659</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46978</v>
+        <v>47666</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.348102977566649</v>
+        <v>0.3481029775666491</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2681348607395452</v>
+        <v>0.2704981270097529</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4284556661759758</v>
+        <v>0.4347218003810681</v>
       </c>
     </row>
     <row r="31">
@@ -8302,19 +8302,19 @@
         <v>6600</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2885</v>
+        <v>2642</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12895</v>
+        <v>13287</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.09621584099919192</v>
+        <v>0.09621584099919193</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04205344663108377</v>
+        <v>0.03850933653192355</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1879723441069808</v>
+        <v>0.1936888852928549</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -8323,19 +8323,19 @@
         <v>5726</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2729</v>
+        <v>2637</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9740</v>
+        <v>9798</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1395045623520854</v>
+        <v>0.1395045623520853</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06647660742882579</v>
+        <v>0.06425073544514834</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2372889154429452</v>
+        <v>0.2387037111232642</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -8344,19 +8344,19 @@
         <v>12327</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7514</v>
+        <v>7435</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19454</v>
+        <v>19855</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1124217983847013</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06852958897520252</v>
+        <v>0.06780752777454198</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1774230350075834</v>
+        <v>0.1810793790198299</v>
       </c>
     </row>
     <row r="32">
@@ -8373,19 +8373,19 @@
         <v>6112</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2760</v>
+        <v>2972</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12397</v>
+        <v>12235</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08910269100018717</v>
+        <v>0.0891026910001872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04023381612879304</v>
+        <v>0.04332365269568533</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1807149093259589</v>
+        <v>0.1783623996850203</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -8394,19 +8394,19 @@
         <v>2695</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6363</v>
+        <v>5764</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06565218097081379</v>
+        <v>0.06565218097081378</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01717360027860821</v>
+        <v>0.01713479817259359</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1550147507468676</v>
+        <v>0.1404327147999526</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -8415,19 +8415,19 @@
         <v>8807</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4305</v>
+        <v>4821</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15084</v>
+        <v>15437</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08032354589432039</v>
+        <v>0.08032354589432038</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03925905939126564</v>
+        <v>0.04396732619999098</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1375716938510864</v>
+        <v>0.1407878132385906</v>
       </c>
     </row>
     <row r="33">
@@ -8519,19 +8519,19 @@
         <v>172011</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>146707</v>
+        <v>148606</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>196844</v>
+        <v>197788</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3632084250113634</v>
+        <v>0.3632084250113633</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3097773949325026</v>
+        <v>0.3137873401117113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.415643445057971</v>
+        <v>0.4176371309000324</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>163</v>
@@ -8540,19 +8540,19 @@
         <v>128329</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110243</v>
+        <v>111855</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>144146</v>
+        <v>147374</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3313308151498309</v>
+        <v>0.3313308151498308</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2846364656762161</v>
+        <v>0.2887972183136479</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3721685228480188</v>
+        <v>0.3805043001358117</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>299</v>
@@ -8561,19 +8561,19 @@
         <v>300340</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>273070</v>
+        <v>272447</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>331304</v>
+        <v>333280</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.3488669091615429</v>
+        <v>0.348866909161543</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3171915014836861</v>
+        <v>0.3164673823291085</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3848341346860037</v>
+        <v>0.3871295598121063</v>
       </c>
     </row>
     <row r="35">
@@ -8590,19 +8590,19 @@
         <v>69194</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54472</v>
+        <v>54273</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>86719</v>
+        <v>86333</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1461057331759941</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1150199417280579</v>
+        <v>0.114599430354386</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1831102836574384</v>
+        <v>0.1822964596293325</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -8611,19 +8611,19 @@
         <v>63504</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51856</v>
+        <v>50832</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78221</v>
+        <v>76256</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1639601948743682</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1338867185748152</v>
+        <v>0.1312422000329221</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2019586038412032</v>
+        <v>0.1968840676943794</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>148</v>
@@ -8632,19 +8632,19 @@
         <v>132698</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>113765</v>
+        <v>114327</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>156297</v>
+        <v>153652</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1541383318102549</v>
+        <v>0.1541383318102548</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1321469377599215</v>
+        <v>0.1327995856999353</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1815505114520804</v>
+        <v>0.1784781804839281</v>
       </c>
     </row>
     <row r="36">
@@ -8661,19 +8661,19 @@
         <v>124974</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>104231</v>
+        <v>105034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>146863</v>
+        <v>148643</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2638878356438726</v>
+        <v>0.2638878356438725</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2200878824829799</v>
+        <v>0.2217834601845723</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3101067344461708</v>
+        <v>0.3138648241199442</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>136</v>
@@ -8682,19 +8682,19 @@
         <v>103322</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>89181</v>
+        <v>87351</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>120396</v>
+        <v>122004</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2667672031680673</v>
+        <v>0.2667672031680672</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2302555522529277</v>
+        <v>0.2255309873181134</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3108485115265303</v>
+        <v>0.3150018380280989</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>244</v>
@@ -8703,19 +8703,19 @@
         <v>228297</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>200381</v>
+        <v>202610</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>255990</v>
+        <v>259346</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2651832431466642</v>
+        <v>0.2651832431466643</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2327573191403977</v>
+        <v>0.2353469219224231</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2973515024309382</v>
+        <v>0.3012491864510294</v>
       </c>
     </row>
     <row r="37">
@@ -8732,19 +8732,19 @@
         <v>63044</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47284</v>
+        <v>45591</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85474</v>
+        <v>83813</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1331202624044121</v>
+        <v>0.133120262404412</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09984167106496039</v>
+        <v>0.09626796883427807</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1804826406365084</v>
+        <v>0.1769749464933172</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>65</v>
@@ -8753,19 +8753,19 @@
         <v>50200</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>39308</v>
+        <v>39439</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>63568</v>
+        <v>64750</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1296098272188372</v>
+        <v>0.1296098272188371</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1014888612186844</v>
+        <v>0.1018277094135829</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1641248225023243</v>
+        <v>0.1671766838702843</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>113</v>
@@ -8774,19 +8774,19 @@
         <v>113244</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>92344</v>
+        <v>94080</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>134282</v>
+        <v>138245</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1315409419323825</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1072645623308978</v>
+        <v>0.1092803117295621</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1559786769363853</v>
+        <v>0.1605812921932915</v>
       </c>
     </row>
     <row r="38">
@@ -8803,19 +8803,19 @@
         <v>44365</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30190</v>
+        <v>30659</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>63306</v>
+        <v>61433</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09367774376435797</v>
+        <v>0.09367774376435796</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06374774598109008</v>
+        <v>0.06473816358911368</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1336725039354565</v>
+        <v>0.1297177493045858</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>49</v>
@@ -8824,19 +8824,19 @@
         <v>41958</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>31735</v>
+        <v>32171</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>55041</v>
+        <v>56143</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1083319595888966</v>
+        <v>0.1083319595888965</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08193741847993055</v>
+        <v>0.08306141144072592</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1421087386563385</v>
+        <v>0.1449547649862827</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>81</v>
@@ -8845,19 +8845,19 @@
         <v>86323</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>67554</v>
+        <v>68216</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>107386</v>
+        <v>109596</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1002705739491554</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07846912661396485</v>
+        <v>0.07923839827677745</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1247369762420731</v>
+        <v>0.1273038304391188</v>
       </c>
     </row>
     <row r="39">
